--- a/AAII_Financials/Quarterly/UGRO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UGRO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>UGRO</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,155 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E8" s="3">
         <v>5600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E10" s="3">
         <v>1900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,28 +887,31 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>500</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -900,8 +919,11 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E17" s="3">
         <v>7500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,13 +1042,14 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1028,48 +1061,54 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1077,16 +1116,16 @@
         <v>900</v>
       </c>
       <c r="E22" s="3">
+        <v>900</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1097,37 +1136,43 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,13 +1424,16 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1376,48 +1445,54 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>3500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,182 +1681,203 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E43" s="3">
         <v>1700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1000</v>
-      </c>
-      <c r="I43" s="3">
-        <v>900</v>
       </c>
       <c r="J43" s="3">
         <v>900</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3">
+        <v>900</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>700</v>
+      </c>
+      <c r="E44" s="3">
         <v>1000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1000</v>
-      </c>
-      <c r="I44" s="3">
-        <v>1200</v>
       </c>
       <c r="J44" s="3">
         <v>1200</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
         <v>800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E46" s="3">
         <v>7000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3700</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1100</v>
-      </c>
-      <c r="I47" s="3">
-        <v>500</v>
       </c>
       <c r="J47" s="3">
         <v>500</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>500</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>400</v>
+      </c>
+      <c r="E48" s="3">
         <v>900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>600</v>
-      </c>
-      <c r="G48" s="3">
-        <v>400</v>
       </c>
       <c r="H48" s="3">
         <v>400</v>
       </c>
       <c r="I48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J48" s="3">
         <v>300</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3">
+        <v>300</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1775,13 +1885,13 @@
         <v>1000</v>
       </c>
       <c r="E49" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F49" s="3">
         <v>900</v>
       </c>
       <c r="G49" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="H49" s="3">
         <v>100</v>
@@ -1789,14 +1899,17 @@
       <c r="I49" s="3">
         <v>100</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
+      <c r="J49" s="3">
+        <v>100</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1862,11 +1981,11 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
@@ -1877,13 +1996,16 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E54" s="3">
         <v>10100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4600</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,54 +2095,58 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E57" s="3">
         <v>3700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E58" s="3">
         <v>4200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3500</v>
-      </c>
-      <c r="H58" s="3">
-        <v>500</v>
       </c>
       <c r="I58" s="3">
         <v>500</v>
@@ -2021,84 +2154,93 @@
       <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>500</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E59" s="3">
         <v>5700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E60" s="3">
         <v>13500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6400</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>1800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>200</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2111,8 +2253,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2120,13 +2265,13 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
@@ -2140,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E66" s="3">
         <v>15400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6400</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5400</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1900</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2650,22 +2848,25 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E89" s="3">
         <v>1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,28 +3070,29 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
@@ -2880,8 +3100,11 @@
       <c r="K91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-200</v>
       </c>
       <c r="G94" s="3">
         <v>-200</v>
       </c>
       <c r="H94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3">
         <v>1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3000</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,33 +3402,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E102" s="3">
         <v>2300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UGRO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UGRO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>UGRO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,181 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F8" s="3">
         <v>7100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>5600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>11500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>5800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>5400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>5300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>9300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F9" s="3">
         <v>6000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>3700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>7900</v>
       </c>
-      <c r="G9" s="3">
-        <v>4100</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J9" s="3">
         <v>3900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>3700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>6500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F10" s="3">
         <v>1100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>3600</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1500</v>
       </c>
       <c r="I10" s="3">
         <v>1600</v>
       </c>
       <c r="J10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L10" s="3">
         <v>2800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +852,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,8 +886,14 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,40 +924,52 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +1000,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +1017,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F17" s="3">
         <v>8900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>7500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>14100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>7200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>7100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>6200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>10600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,20 +1109,22 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1064,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1075,104 +1143,128 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-1300</v>
       </c>
       <c r="K23" s="3">
         <v>-800</v>
       </c>
       <c r="L23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1295,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1333,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-1300</v>
       </c>
       <c r="K26" s="3">
         <v>-800</v>
       </c>
       <c r="L26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-1300</v>
       </c>
       <c r="K27" s="3">
         <v>-800</v>
       </c>
       <c r="L27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1447,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1485,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1523,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,20 +1561,26 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1448,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1459,40 +1599,52 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-1300</v>
       </c>
       <c r="K33" s="3">
         <v>-800</v>
       </c>
       <c r="L33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1675,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-1300</v>
       </c>
       <c r="K35" s="3">
         <v>-800</v>
       </c>
       <c r="L35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1776,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,8 +1792,10 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1629,13 +1803,13 @@
         <v>400</v>
       </c>
       <c r="E41" s="3">
+        <v>600</v>
+      </c>
+      <c r="F41" s="3">
+        <v>400</v>
+      </c>
+      <c r="G41" s="3">
         <v>3500</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G41" s="3">
-        <v>900</v>
       </c>
       <c r="H41" s="3">
         <v>1200</v>
@@ -1644,16 +1818,22 @@
         <v>900</v>
       </c>
       <c r="J41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K41" s="3">
+        <v>900</v>
+      </c>
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,57 +1864,69 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F43" s="3">
         <v>1600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>900</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>900</v>
+      </c>
+      <c r="F44" s="3">
         <v>700</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1300</v>
       </c>
       <c r="G44" s="3">
         <v>1000</v>
       </c>
       <c r="H44" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="I44" s="3">
         <v>1000</v>
@@ -1743,141 +1935,171 @@
         <v>1200</v>
       </c>
       <c r="K44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L44" s="3">
         <v>1200</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F46" s="3">
         <v>4000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>7000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3700</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F47" s="3">
         <v>2000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>1300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>1500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>1300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>1100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>500</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>300</v>
+      </c>
+      <c r="F48" s="3">
         <v>400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>300</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1888,28 +2110,34 @@
         <v>1000</v>
       </c>
       <c r="F49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H49" s="3">
         <v>900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>900</v>
-      </c>
-      <c r="H49" s="3">
-        <v>100</v>
-      </c>
-      <c r="I49" s="3">
-        <v>100</v>
       </c>
       <c r="J49" s="3">
         <v>100</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K49" s="3">
+        <v>100</v>
+      </c>
+      <c r="L49" s="3">
+        <v>100</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2168,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,26 +2206,32 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
@@ -1999,13 +2239,19 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,8 +2282,14 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2045,31 +2297,37 @@
         <v>7400</v>
       </c>
       <c r="E54" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F54" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G54" s="3">
         <v>10100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>8100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>8000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>5700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4600</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2340,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,157 +2356,183 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F57" s="3">
         <v>3800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F58" s="3">
         <v>3800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>4200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>3400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>3500</v>
-      </c>
-      <c r="I58" s="3">
-        <v>500</v>
-      </c>
-      <c r="J58" s="3">
-        <v>500</v>
       </c>
       <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>500</v>
+      </c>
+      <c r="M58" s="3">
+        <v>500</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F59" s="3">
         <v>4800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>5700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>6400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>5700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>5100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F60" s="3">
         <v>12300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>13500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>10300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>11200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>9600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>8100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>6400</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>1800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>200</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2256,8 +2542,14 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2268,16 +2560,16 @@
         <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -2288,8 +2580,14 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2618,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2656,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2694,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F66" s="3">
         <v>12400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>15400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>11100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>11500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>9600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6400</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2752,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2786,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2824,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2862,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2900,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-16900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-14300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-11400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-10000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-8500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-6800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-5900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-5400</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2976,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3014,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +3052,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-5000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-5300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-3800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1900</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3128,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-1300</v>
       </c>
       <c r="K81" s="3">
         <v>-800</v>
       </c>
       <c r="L81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3229,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2851,22 +3249,28 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3301,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3339,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3377,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3415,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3453,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3511,48 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3583,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3621,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3679,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3713,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3751,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3789,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,40 +3827,52 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>2200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>3000</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,36 +3903,48 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>2300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UGRO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UGRO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>UGRO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,194 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E8" s="3">
         <v>4000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E9" s="3">
         <v>2800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="E10" s="3">
         <v>1200</v>
       </c>
       <c r="F10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G10" s="3">
         <v>1100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,37 +947,40 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -968,8 +988,11 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E17" s="3">
         <v>5200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,23 +1144,24 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1138,57 +1172,63 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1196,25 +1236,25 @@
         <v>400</v>
       </c>
       <c r="E22" s="3">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
-      </c>
-      <c r="F22" s="3">
-        <v>900</v>
       </c>
       <c r="G22" s="3">
         <v>900</v>
       </c>
       <c r="H22" s="3">
+        <v>900</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
-      </c>
-      <c r="I22" s="3">
-        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1225,46 +1265,52 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1347,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,23 +1634,26 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1594,57 +1664,63 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1880,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,8 +1960,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1879,151 +1972,163 @@
         <v>900</v>
       </c>
       <c r="E43" s="3">
+        <v>900</v>
+      </c>
+      <c r="F43" s="3">
         <v>1400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1000</v>
-      </c>
-      <c r="L43" s="3">
-        <v>900</v>
       </c>
       <c r="M43" s="3">
         <v>900</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>900</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>800</v>
+      </c>
+      <c r="E44" s="3">
         <v>1000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1000</v>
-      </c>
-      <c r="L44" s="3">
-        <v>1200</v>
       </c>
       <c r="M44" s="3">
         <v>1200</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E45" s="3">
         <v>2100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E46" s="3">
         <v>4400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3700</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2031,37 +2136,40 @@
         <v>1700</v>
       </c>
       <c r="E47" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F47" s="3">
         <v>1800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1100</v>
-      </c>
-      <c r="L47" s="3">
-        <v>500</v>
       </c>
       <c r="M47" s="3">
         <v>500</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>500</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2072,34 +2180,37 @@
         <v>300</v>
       </c>
       <c r="F48" s="3">
+        <v>300</v>
+      </c>
+      <c r="G48" s="3">
         <v>400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>600</v>
-      </c>
-      <c r="J48" s="3">
-        <v>400</v>
       </c>
       <c r="K48" s="3">
         <v>400</v>
       </c>
       <c r="L48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M48" s="3">
         <v>300</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>300</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2116,13 +2227,13 @@
         <v>1000</v>
       </c>
       <c r="H49" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I49" s="3">
         <v>900</v>
       </c>
       <c r="J49" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="K49" s="3">
         <v>100</v>
@@ -2130,14 +2241,17 @@
       <c r="L49" s="3">
         <v>100</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
+      <c r="M49" s="3">
+        <v>100</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2329,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2223,18 +2343,18 @@
       <c r="E52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
@@ -2245,13 +2365,16 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E54" s="3">
         <v>7400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4600</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,72 +2488,76 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E58" s="3">
         <v>6200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3500</v>
-      </c>
-      <c r="K58" s="3">
-        <v>500</v>
       </c>
       <c r="L58" s="3">
         <v>500</v>
@@ -2431,111 +2565,120 @@
       <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>500</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5400</v>
+        <v>6000</v>
       </c>
       <c r="E59" s="3">
         <v>5400</v>
       </c>
       <c r="F59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G59" s="3">
         <v>4800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E60" s="3">
         <v>13000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6400</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E61" s="3">
         <v>1000</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>1800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>200</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2548,13 +2691,16 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -2566,13 +2712,13 @@
         <v>100</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E66" s="3">
         <v>14000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6400</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-20200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-18600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-16900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5400</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1900</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3429,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3255,22 +3454,25 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3733,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3525,25 +3746,25 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
@@ -3551,8 +3772,11 @@
       <c r="N91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +3854,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3639,34 +3869,37 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-200</v>
       </c>
       <c r="J94" s="3">
         <v>-200</v>
       </c>
       <c r="K94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4076,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3000</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,8 +4158,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3918,33 +4170,36 @@
         <v>-200</v>
       </c>
       <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UGRO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UGRO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>UGRO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,162 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E8" s="3">
         <v>8400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E9" s="3">
         <v>6700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,40 +828,43 @@
         <v>1700</v>
       </c>
       <c r="E10" s="3">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="F10" s="3">
         <v>1200</v>
       </c>
       <c r="G10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H10" s="3">
         <v>1100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -959,31 +978,31 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -991,8 +1010,11 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E17" s="3">
         <v>8500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,26 +1177,27 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1175,60 +1208,66 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1239,25 +1278,25 @@
         <v>400</v>
       </c>
       <c r="F22" s="3">
+        <v>400</v>
+      </c>
+      <c r="G22" s="3">
         <v>300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>900</v>
       </c>
       <c r="H22" s="3">
         <v>900</v>
       </c>
       <c r="I22" s="3">
+        <v>900</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1268,49 +1307,55 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,26 +1703,29 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1667,60 +1736,66 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,8 +1966,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1890,40 +1976,43 @@
         <v>200</v>
       </c>
       <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="O41" s="3" t="s">
+      <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,172 +2052,187 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E43" s="3">
         <v>900</v>
       </c>
       <c r="F43" s="3">
+        <v>900</v>
+      </c>
+      <c r="G43" s="3">
         <v>1400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1000</v>
-      </c>
-      <c r="M43" s="3">
-        <v>900</v>
       </c>
       <c r="N43" s="3">
         <v>900</v>
       </c>
-      <c r="O43" s="3" t="s">
+      <c r="O43" s="3">
+        <v>900</v>
+      </c>
+      <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>500</v>
+      </c>
+      <c r="E44" s="3">
         <v>800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1000</v>
-      </c>
-      <c r="M44" s="3">
-        <v>1200</v>
       </c>
       <c r="N44" s="3">
         <v>1200</v>
       </c>
-      <c r="O44" s="3" t="s">
+      <c r="O44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E45" s="3">
         <v>2700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1000</v>
       </c>
-      <c r="O45" s="3" t="s">
+      <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E46" s="3">
         <v>4600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3700</v>
       </c>
-      <c r="O46" s="3" t="s">
+      <c r="P46" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2139,42 +2243,45 @@
         <v>1700</v>
       </c>
       <c r="F47" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G47" s="3">
         <v>1800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1100</v>
-      </c>
-      <c r="M47" s="3">
-        <v>500</v>
       </c>
       <c r="N47" s="3">
         <v>500</v>
       </c>
-      <c r="O47" s="3" t="s">
+      <c r="O47" s="3">
+        <v>500</v>
+      </c>
+      <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
         <v>300</v>
@@ -2183,39 +2290,42 @@
         <v>300</v>
       </c>
       <c r="G48" s="3">
+        <v>300</v>
+      </c>
+      <c r="H48" s="3">
         <v>400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>600</v>
-      </c>
-      <c r="K48" s="3">
-        <v>400</v>
       </c>
       <c r="L48" s="3">
         <v>400</v>
       </c>
       <c r="M48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N48" s="3">
         <v>300</v>
       </c>
-      <c r="O48" s="3" t="s">
+      <c r="O48" s="3">
+        <v>300</v>
+      </c>
+      <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E49" s="3">
         <v>1000</v>
@@ -2230,13 +2340,13 @@
         <v>1000</v>
       </c>
       <c r="I49" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="J49" s="3">
         <v>900</v>
       </c>
       <c r="K49" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="L49" s="3">
         <v>100</v>
@@ -2244,14 +2354,17 @@
       <c r="M49" s="3">
         <v>100</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
+      <c r="N49" s="3">
+        <v>100</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,13 +2448,16 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
+      <c r="D52" s="3">
+        <v>100</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>8</v>
@@ -2346,18 +2465,18 @@
       <c r="F52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
@@ -2368,13 +2487,16 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3" t="s">
+      <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E54" s="3">
         <v>7600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4600</v>
       </c>
-      <c r="O54" s="3" t="s">
+      <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,78 +2618,82 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3" t="s">
+      <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E58" s="3">
         <v>2300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3500</v>
-      </c>
-      <c r="L58" s="3">
-        <v>500</v>
       </c>
       <c r="M58" s="3">
         <v>500</v>
@@ -2568,120 +2701,129 @@
       <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="O58" s="3" t="s">
+      <c r="O58" s="3">
+        <v>500</v>
+      </c>
+      <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E59" s="3">
         <v>6000</v>
-      </c>
-      <c r="E59" s="3">
-        <v>5400</v>
       </c>
       <c r="F59" s="3">
         <v>5400</v>
       </c>
       <c r="G59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H59" s="3">
         <v>4800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5100</v>
       </c>
-      <c r="O59" s="3" t="s">
+      <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E60" s="3">
         <v>9400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6400</v>
       </c>
-      <c r="O60" s="3" t="s">
+      <c r="P60" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1000</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>1800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>200</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2694,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2703,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -2715,13 +2860,13 @@
         <v>100</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E66" s="3">
         <v>14300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6400</v>
       </c>
-      <c r="O66" s="3" t="s">
+      <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-20900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-20200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-18600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-16900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5400</v>
       </c>
-      <c r="O72" s="3" t="s">
+      <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-6600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1900</v>
       </c>
-      <c r="O76" s="3" t="s">
+      <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3457,22 +3655,25 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,13 +3953,14 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3749,25 +3969,25 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
@@ -3775,8 +3995,11 @@
       <c r="O91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,13 +4083,16 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -3872,34 +4101,37 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-200</v>
       </c>
       <c r="K94" s="3">
         <v>-200</v>
       </c>
       <c r="L94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M94" s="3">
         <v>-800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,49 +4321,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3000</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,45 +4409,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>-200</v>
       </c>
       <c r="F102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UGRO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UGRO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>UGRO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E8" s="3">
         <v>9200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E9" s="3">
         <v>7500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1700</v>
+        <v>2600</v>
       </c>
       <c r="E10" s="3">
         <v>1700</v>
       </c>
       <c r="F10" s="3">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="G10" s="3">
         <v>1200</v>
       </c>
       <c r="H10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I10" s="3">
         <v>1100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,43 +986,46 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E17" s="3">
         <v>9500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,29 +1211,30 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1211,19 +1245,22 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,48 +1268,51 @@
         <v>-600</v>
       </c>
       <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="E22" s="3">
         <v>400</v>
@@ -1281,25 +1321,25 @@
         <v>400</v>
       </c>
       <c r="G22" s="3">
+        <v>400</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>900</v>
       </c>
       <c r="I22" s="3">
         <v>900</v>
       </c>
       <c r="J22" s="3">
+        <v>900</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1310,52 +1350,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,29 +1773,32 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1739,63 +1809,69 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>49900</v>
       </c>
       <c r="E41" s="3">
         <v>200</v>
       </c>
       <c r="F41" s="3">
+        <v>200</v>
+      </c>
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3" t="s">
+      <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,184 +2145,199 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3">
         <v>1000</v>
-      </c>
-      <c r="E43" s="3">
-        <v>900</v>
       </c>
       <c r="F43" s="3">
         <v>900</v>
       </c>
       <c r="G43" s="3">
+        <v>900</v>
+      </c>
+      <c r="H43" s="3">
         <v>1400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1000</v>
-      </c>
-      <c r="N43" s="3">
-        <v>900</v>
       </c>
       <c r="O43" s="3">
         <v>900</v>
       </c>
-      <c r="P43" s="3" t="s">
+      <c r="P43" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>600</v>
+      </c>
+      <c r="E44" s="3">
         <v>500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1000</v>
-      </c>
-      <c r="N44" s="3">
-        <v>1200</v>
       </c>
       <c r="O44" s="3">
         <v>1200</v>
       </c>
-      <c r="P44" s="3" t="s">
+      <c r="P44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q44" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E45" s="3">
         <v>3500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1000</v>
       </c>
-      <c r="P45" s="3" t="s">
+      <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E46" s="3">
         <v>5200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3700</v>
       </c>
-      <c r="P46" s="3" t="s">
+      <c r="Q46" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2246,37 +2351,40 @@
         <v>1700</v>
       </c>
       <c r="G47" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H47" s="3">
         <v>1800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1100</v>
-      </c>
-      <c r="N47" s="3">
-        <v>500</v>
       </c>
       <c r="O47" s="3">
         <v>500</v>
       </c>
-      <c r="P47" s="3" t="s">
+      <c r="P47" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2284,7 +2392,7 @@
         <v>200</v>
       </c>
       <c r="E48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>300</v>
@@ -2293,34 +2401,37 @@
         <v>300</v>
       </c>
       <c r="H48" s="3">
+        <v>300</v>
+      </c>
+      <c r="I48" s="3">
         <v>400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>600</v>
-      </c>
-      <c r="L48" s="3">
-        <v>400</v>
       </c>
       <c r="M48" s="3">
         <v>400</v>
       </c>
       <c r="N48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O48" s="3">
         <v>300</v>
       </c>
-      <c r="P48" s="3" t="s">
+      <c r="P48" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2328,7 +2439,7 @@
         <v>900</v>
       </c>
       <c r="E49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F49" s="3">
         <v>1000</v>
@@ -2343,13 +2454,13 @@
         <v>1000</v>
       </c>
       <c r="J49" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K49" s="3">
         <v>900</v>
       </c>
       <c r="L49" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="M49" s="3">
         <v>100</v>
@@ -2357,14 +2468,17 @@
       <c r="N49" s="3">
         <v>100</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
+      <c r="O49" s="3">
+        <v>100</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,16 +2568,19 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
+      <c r="E52" s="3">
+        <v>100</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>8</v>
@@ -2468,18 +2588,18 @@
       <c r="G52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
@@ -2490,13 +2610,16 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3" t="s">
+      <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E54" s="3">
         <v>8200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4600</v>
       </c>
-      <c r="P54" s="3" t="s">
+      <c r="Q54" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,84 +2749,88 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="P57" s="3" t="s">
+      <c r="Q57" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>7100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3500</v>
-      </c>
-      <c r="M58" s="3">
-        <v>500</v>
       </c>
       <c r="N58" s="3">
         <v>500</v>
@@ -2704,129 +2838,138 @@
       <c r="O58" s="3">
         <v>500</v>
       </c>
-      <c r="P58" s="3" t="s">
+      <c r="P58" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E59" s="3">
         <v>6800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6000</v>
-      </c>
-      <c r="F59" s="3">
-        <v>5400</v>
       </c>
       <c r="G59" s="3">
         <v>5400</v>
       </c>
       <c r="H59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I59" s="3">
         <v>4800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5100</v>
       </c>
-      <c r="P59" s="3" t="s">
+      <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E60" s="3">
         <v>14500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>14000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6400</v>
       </c>
-      <c r="P60" s="3" t="s">
+      <c r="Q60" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>1000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1000</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>1800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>200</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2839,19 +2982,22 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
@@ -2863,13 +3009,13 @@
         <v>100</v>
       </c>
       <c r="J62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E66" s="3">
         <v>15600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6400</v>
       </c>
-      <c r="P66" s="3" t="s">
+      <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-22000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-20900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-20200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-18600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-16900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-14300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5400</v>
       </c>
-      <c r="P72" s="3" t="s">
+      <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-7400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-6700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-6600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1900</v>
       </c>
-      <c r="P76" s="3" t="s">
+      <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3658,22 +3857,25 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,17 +4174,18 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -3972,25 +4193,25 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,17 +4313,20 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -4104,34 +4334,37 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-200</v>
       </c>
       <c r="L94" s="3">
         <v>-200</v>
       </c>
       <c r="M94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N94" s="3">
         <v>-800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3000</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>49700</v>
       </c>
       <c r="E102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
         <v>-200</v>
       </c>
       <c r="G102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UGRO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UGRO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>UGRO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,245 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F8" s="3">
         <v>12000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>9200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>8400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>4000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>4300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>7100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>11500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>5800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>5400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>9300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F9" s="3">
         <v>9400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>7500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>6700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>3100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>6000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>7900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>4200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>3900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>6500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F10" s="3">
         <v>2600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>3600</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1600</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1500</v>
       </c>
       <c r="N10" s="3">
         <v>1600</v>
       </c>
       <c r="O10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q10" s="3">
         <v>2800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +921,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +970,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,55 +1023,67 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F14" s="3">
         <v>800</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1129,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1151,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F17" s="3">
         <v>12700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>9500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>8500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>5200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>5700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>8900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>7500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>14100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>7200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>7100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>6200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>10600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>4200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1278,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,26 +1289,26 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1248,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1259,149 +1327,173 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>1000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>400</v>
       </c>
       <c r="G22" s="3">
         <v>400</v>
       </c>
       <c r="H22" s="3">
+        <v>400</v>
+      </c>
+      <c r="I22" s="3">
+        <v>400</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-800</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-1300</v>
       </c>
       <c r="P23" s="3">
         <v>-800</v>
       </c>
       <c r="Q23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1539,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1592,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-800</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-1300</v>
       </c>
       <c r="P26" s="3">
         <v>-800</v>
       </c>
       <c r="Q26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-800</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-1300</v>
       </c>
       <c r="P27" s="3">
         <v>-800</v>
       </c>
       <c r="Q27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1751,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1804,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1857,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1910,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,26 +1925,26 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1812,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -1823,55 +1963,67 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-800</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-1300</v>
       </c>
       <c r="P33" s="3">
         <v>-800</v>
       </c>
       <c r="Q33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2069,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-800</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-1300</v>
       </c>
       <c r="P35" s="3">
         <v>-800</v>
       </c>
       <c r="Q35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2205,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,37 +2226,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>50400</v>
+      </c>
+      <c r="F41" s="3">
         <v>49900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
-      </c>
-      <c r="G41" s="3">
-        <v>400</v>
-      </c>
-      <c r="H41" s="3">
-        <v>600</v>
       </c>
       <c r="I41" s="3">
         <v>400</v>
       </c>
       <c r="J41" s="3">
+        <v>600</v>
+      </c>
+      <c r="K41" s="3">
+        <v>400</v>
+      </c>
+      <c r="L41" s="3">
         <v>3500</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>900</v>
       </c>
       <c r="M41" s="3">
         <v>1200</v>
@@ -2093,16 +2267,22 @@
         <v>900</v>
       </c>
       <c r="O41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P41" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q41" s="3">
         <v>1000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3" t="s">
+      <c r="S41" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,55 +2328,67 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>900</v>
       </c>
-      <c r="Q43" s="3" t="s">
+      <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2204,31 +2396,31 @@
         <v>600</v>
       </c>
       <c r="E44" s="3">
+        <v>600</v>
+      </c>
+      <c r="F44" s="3">
+        <v>600</v>
+      </c>
+      <c r="G44" s="3">
         <v>500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>700</v>
-      </c>
-      <c r="J44" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K44" s="3">
-        <v>1300</v>
       </c>
       <c r="L44" s="3">
         <v>1000</v>
       </c>
       <c r="M44" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="N44" s="3">
         <v>1000</v>
@@ -2237,107 +2429,125 @@
         <v>1200</v>
       </c>
       <c r="P44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q44" s="3">
         <v>1200</v>
       </c>
-      <c r="Q44" s="3" t="s">
+      <c r="R44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S44" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F45" s="3">
         <v>3900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1000</v>
       </c>
-      <c r="Q45" s="3" t="s">
+      <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>60300</v>
+      </c>
+      <c r="F46" s="3">
         <v>55200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>5200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>5300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>7000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3700</v>
       </c>
-      <c r="Q46" s="3" t="s">
+      <c r="S46" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2354,98 +2564,110 @@
         <v>1700</v>
       </c>
       <c r="H47" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J47" s="3">
         <v>1800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>2000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>500</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>100</v>
+      </c>
+      <c r="F48" s="3">
         <v>200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>200</v>
-      </c>
-      <c r="F48" s="3">
-        <v>300</v>
-      </c>
-      <c r="G48" s="3">
-        <v>300</v>
       </c>
       <c r="H48" s="3">
         <v>300</v>
       </c>
       <c r="I48" s="3">
+        <v>300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>300</v>
+      </c>
+      <c r="K48" s="3">
         <v>400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>300</v>
       </c>
-      <c r="Q48" s="3" t="s">
+      <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>900</v>
+        <v>10600</v>
       </c>
       <c r="E49" s="3">
         <v>900</v>
       </c>
       <c r="F49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H49" s="3">
         <v>1000</v>
@@ -2457,28 +2679,34 @@
         <v>1000</v>
       </c>
       <c r="K49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M49" s="3">
         <v>900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>900</v>
-      </c>
-      <c r="M49" s="3">
-        <v>100</v>
-      </c>
-      <c r="N49" s="3">
-        <v>100</v>
       </c>
       <c r="O49" s="3">
         <v>100</v>
       </c>
-      <c r="P49" s="3" t="s">
+      <c r="P49" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>100</v>
+      </c>
+      <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q49" s="3" t="s">
+      <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2752,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,41 +2805,47 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>100</v>
+      <c r="D52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
+      <c r="F52" s="3">
+        <v>100</v>
+      </c>
+      <c r="G52" s="3">
+        <v>100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
@@ -2613,13 +2853,19 @@
         <v>0</v>
       </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>100</v>
       </c>
-      <c r="Q52" s="3" t="s">
+      <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2911,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>63100</v>
+      </c>
+      <c r="F54" s="3">
         <v>58000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>8200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>7600</v>
-      </c>
-      <c r="G54" s="3">
-        <v>7400</v>
-      </c>
-      <c r="H54" s="3">
-        <v>8500</v>
       </c>
       <c r="I54" s="3">
         <v>7400</v>
       </c>
       <c r="J54" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K54" s="3">
+        <v>7400</v>
+      </c>
+      <c r="L54" s="3">
         <v>10100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>8100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>8000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4600</v>
       </c>
-      <c r="Q54" s="3" t="s">
+      <c r="S54" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2989,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,196 +3010,222 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>900</v>
       </c>
-      <c r="Q57" s="3" t="s">
+      <c r="S57" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>7100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>6200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>6000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>3800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>3500</v>
-      </c>
-      <c r="N58" s="3">
-        <v>500</v>
-      </c>
-      <c r="O58" s="3">
-        <v>500</v>
       </c>
       <c r="P58" s="3">
         <v>500</v>
       </c>
-      <c r="Q58" s="3" t="s">
+      <c r="Q58" s="3">
+        <v>500</v>
+      </c>
+      <c r="R58" s="3">
+        <v>500</v>
+      </c>
+      <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F59" s="3">
         <v>6200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>6800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>6000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>5400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>5400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>5700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>6400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>5700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>5100</v>
       </c>
-      <c r="Q59" s="3" t="s">
+      <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F60" s="3">
         <v>9500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>14500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>9400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>13000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>14000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>12300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>13500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>10300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>11200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>9600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>8100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>7400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>6400</v>
       </c>
-      <c r="Q60" s="3" t="s">
+      <c r="S60" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2947,35 +3233,35 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>1000</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>1800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>200</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -2985,25 +3271,31 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
@@ -3012,16 +3304,16 @@
         <v>100</v>
       </c>
       <c r="K62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
@@ -3032,8 +3324,14 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3377,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3430,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3483,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F66" s="3">
         <v>9500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>15600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>14300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>14000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>14100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>12400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>15400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>11100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>11500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>9600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>7400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6400</v>
       </c>
-      <c r="Q66" s="3" t="s">
+      <c r="S66" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3561,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3610,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3663,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3716,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3769,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-23600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-22000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-20900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-20200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-18600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-16900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-14300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-11400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-10000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-8500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-6800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-5900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q72" s="3" t="s">
+      <c r="S72" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3875,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3928,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3981,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>49500</v>
+      </c>
+      <c r="F76" s="3">
         <v>48600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-7400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-6700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-6600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-5600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-5000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-5300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-3000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-3800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q76" s="3" t="s">
+      <c r="S76" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4087,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-800</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-1300</v>
       </c>
       <c r="P81" s="3">
         <v>-800</v>
       </c>
       <c r="Q81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,13 +4223,15 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -3860,22 +4258,28 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4325,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4378,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4431,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4484,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4537,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-2500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4615,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-100</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4717,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4770,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-5700</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4848,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4897,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4950,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5003,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +5056,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F100" s="3">
         <v>49400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>2000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>3000</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +5162,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>500</v>
+      </c>
+      <c r="F102" s="3">
         <v>49700</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-3100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>2300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UGRO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UGRO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>UGRO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,145 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E8" s="3">
         <v>18300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -805,105 +811,111 @@
         <v>14000</v>
       </c>
       <c r="E9" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F9" s="3">
         <v>9900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2600</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1700</v>
       </c>
       <c r="H10" s="3">
         <v>1700</v>
       </c>
       <c r="I10" s="3">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="J10" s="3">
         <v>1200</v>
       </c>
       <c r="K10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L10" s="3">
         <v>1100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1038,43 +1057,43 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>800</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>500</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1082,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E17" s="3">
         <v>18200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E18" s="3">
         <v>100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,23 +1328,23 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1322,72 +1355,78 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1300</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-600</v>
       </c>
       <c r="G21" s="3">
         <v>-600</v>
       </c>
       <c r="H21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1398,10 +1437,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>1000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>400</v>
       </c>
       <c r="H22" s="3">
         <v>400</v>
@@ -1410,25 +1449,25 @@
         <v>400</v>
       </c>
       <c r="J22" s="3">
+        <v>400</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
-      </c>
-      <c r="K22" s="3">
-        <v>900</v>
       </c>
       <c r="L22" s="3">
         <v>900</v>
       </c>
       <c r="M22" s="3">
+        <v>900</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1439,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1931,23 +2000,23 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1958,72 +2027,78 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E41" s="3">
         <v>40500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>50400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>49900</v>
-      </c>
-      <c r="G41" s="3">
-        <v>200</v>
       </c>
       <c r="H41" s="3">
         <v>200</v>
       </c>
       <c r="I41" s="3">
+        <v>200</v>
+      </c>
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>600</v>
       </c>
-      <c r="S41" s="3" t="s">
+      <c r="T41" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,66 +2423,72 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E43" s="3">
         <v>5800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1000</v>
-      </c>
-      <c r="H43" s="3">
-        <v>900</v>
       </c>
       <c r="I43" s="3">
         <v>900</v>
       </c>
       <c r="J43" s="3">
+        <v>900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>900</v>
       </c>
       <c r="R43" s="3">
         <v>900</v>
       </c>
-      <c r="S43" s="3" t="s">
+      <c r="S43" s="3">
+        <v>900</v>
+      </c>
+      <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E44" s="3">
         <v>600</v>
@@ -2402,157 +2497,166 @@
         <v>600</v>
       </c>
       <c r="G44" s="3">
+        <v>600</v>
+      </c>
+      <c r="H44" s="3">
         <v>500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>1200</v>
       </c>
       <c r="R44" s="3">
         <v>1200</v>
       </c>
-      <c r="S44" s="3" t="s">
+      <c r="S44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T44" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E45" s="3">
         <v>7800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1000</v>
       </c>
-      <c r="S45" s="3" t="s">
+      <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E46" s="3">
         <v>54700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>60300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>55200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3700</v>
       </c>
-      <c r="S46" s="3" t="s">
+      <c r="T46" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1700</v>
+        <v>4200</v>
       </c>
       <c r="E47" s="3">
         <v>1700</v>
@@ -2570,37 +2674,40 @@
         <v>1700</v>
       </c>
       <c r="J47" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K47" s="3">
         <v>1800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>500</v>
       </c>
       <c r="R47" s="3">
         <v>500</v>
       </c>
-      <c r="S47" s="3" t="s">
+      <c r="S47" s="3">
+        <v>500</v>
+      </c>
+      <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2608,16 +2715,16 @@
         <v>900</v>
       </c>
       <c r="E48" s="3">
+        <v>900</v>
+      </c>
+      <c r="F48" s="3">
         <v>100</v>
-      </c>
-      <c r="F48" s="3">
-        <v>200</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
       </c>
       <c r="H48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I48" s="3">
         <v>300</v>
@@ -2626,42 +2733,45 @@
         <v>300</v>
       </c>
       <c r="K48" s="3">
+        <v>300</v>
+      </c>
+      <c r="L48" s="3">
         <v>400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>600</v>
-      </c>
-      <c r="O48" s="3">
-        <v>400</v>
       </c>
       <c r="P48" s="3">
         <v>400</v>
       </c>
       <c r="Q48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R48" s="3">
         <v>300</v>
       </c>
-      <c r="S48" s="3" t="s">
+      <c r="S48" s="3">
+        <v>300</v>
+      </c>
+      <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E49" s="3">
         <v>10600</v>
-      </c>
-      <c r="E49" s="3">
-        <v>900</v>
       </c>
       <c r="F49" s="3">
         <v>900</v>
@@ -2670,7 +2780,7 @@
         <v>900</v>
       </c>
       <c r="H49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I49" s="3">
         <v>1000</v>
@@ -2685,13 +2795,13 @@
         <v>1000</v>
       </c>
       <c r="M49" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="N49" s="3">
         <v>900</v>
       </c>
       <c r="O49" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="P49" s="3">
         <v>100</v>
@@ -2699,14 +2809,17 @@
       <c r="Q49" s="3">
         <v>100</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
+      <c r="R49" s="3">
+        <v>100</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,16 +2927,19 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="3">
-        <v>100</v>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -2828,8 +2947,8 @@
       <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
+      <c r="H52" s="3">
+        <v>100</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>8</v>
@@ -2837,18 +2956,18 @@
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
@@ -2859,13 +2978,16 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>100</v>
       </c>
-      <c r="S52" s="3" t="s">
+      <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E54" s="3">
         <v>68000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>63100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>58000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4600</v>
       </c>
-      <c r="S54" s="3" t="s">
+      <c r="T54" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E57" s="3">
         <v>2800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>900</v>
       </c>
-      <c r="S57" s="3" t="s">
+      <c r="T57" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3077,37 +3210,37 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>1000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3500</v>
-      </c>
-      <c r="P58" s="3">
-        <v>500</v>
       </c>
       <c r="Q58" s="3">
         <v>500</v>
@@ -3115,117 +3248,126 @@
       <c r="R58" s="3">
         <v>500</v>
       </c>
-      <c r="S58" s="3" t="s">
+      <c r="S58" s="3">
+        <v>500</v>
+      </c>
+      <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E59" s="3">
         <v>15400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>5400</v>
       </c>
       <c r="J59" s="3">
         <v>5400</v>
       </c>
       <c r="K59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="L59" s="3">
         <v>4800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5100</v>
       </c>
-      <c r="S59" s="3" t="s">
+      <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E60" s="3">
         <v>18200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>14500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6400</v>
       </c>
-      <c r="S60" s="3" t="s">
+      <c r="T60" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3239,32 +3381,32 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>1000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>1800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>200</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3277,28 +3419,31 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>1000</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
+      <c r="E62" s="3">
+        <v>1000</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
@@ -3310,13 +3455,13 @@
         <v>100</v>
       </c>
       <c r="M62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
@@ -3330,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E66" s="3">
         <v>19200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6400</v>
       </c>
-      <c r="S66" s="3" t="s">
+      <c r="T66" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-22200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-22300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-23600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-22000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-20900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-20200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-18600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5400</v>
       </c>
-      <c r="S72" s="3" t="s">
+      <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E76" s="3">
         <v>48800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>49500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>48600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-7400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-6700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-6600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1900</v>
       </c>
-      <c r="S76" s="3" t="s">
+      <c r="T76" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4234,7 +4432,7 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -4264,22 +4462,25 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
       <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,26 +4836,27 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -4644,25 +4864,25 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-100</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
@@ -4670,8 +4890,11 @@
       <c r="S91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,26 +5002,29 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5700</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -4803,34 +5032,37 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-500</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-200</v>
       </c>
       <c r="O94" s="3">
         <v>-200</v>
       </c>
       <c r="P94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>49400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3000</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
       </c>
       <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>49700</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
         <v>-200</v>
       </c>
       <c r="J102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UGRO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UGRO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>UGRO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E8" s="3">
         <v>19000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>18300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14000</v>
+        <v>16200</v>
       </c>
       <c r="E9" s="3">
         <v>14000</v>
       </c>
       <c r="F9" s="3">
+        <v>14000</v>
+      </c>
+      <c r="G9" s="3">
         <v>9900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E10" s="3">
         <v>5000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2600</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1700</v>
       </c>
       <c r="I10" s="3">
         <v>1700</v>
       </c>
       <c r="J10" s="3">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="K10" s="3">
         <v>1200</v>
       </c>
       <c r="L10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M10" s="3">
         <v>1100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1060,43 +1080,43 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-1000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>800</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>500</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E17" s="3">
         <v>19600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1331,23 +1365,23 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1358,75 +1392,81 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
-        <v>1300</v>
-      </c>
       <c r="G21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="T21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-800</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-700</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-600</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1440,10 +1480,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>1000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>400</v>
       </c>
       <c r="I22" s="3">
         <v>400</v>
@@ -1452,25 +1492,25 @@
         <v>400</v>
       </c>
       <c r="K22" s="3">
+        <v>400</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
-      </c>
-      <c r="L22" s="3">
-        <v>900</v>
       </c>
       <c r="M22" s="3">
         <v>900</v>
       </c>
       <c r="N22" s="3">
+        <v>900</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1481,69 +1521,75 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2003,23 +2073,23 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2030,75 +2100,81 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E41" s="3">
         <v>34600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>40500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>50400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>49900</v>
-      </c>
-      <c r="H41" s="3">
-        <v>200</v>
       </c>
       <c r="I41" s="3">
         <v>200</v>
       </c>
       <c r="J41" s="3">
+        <v>200</v>
+      </c>
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>600</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,72 +2516,78 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E43" s="3">
         <v>13100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1000</v>
-      </c>
-      <c r="I43" s="3">
-        <v>900</v>
       </c>
       <c r="J43" s="3">
         <v>900</v>
       </c>
       <c r="K43" s="3">
+        <v>900</v>
+      </c>
+      <c r="L43" s="3">
         <v>1400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1000</v>
-      </c>
-      <c r="R43" s="3">
-        <v>900</v>
       </c>
       <c r="S43" s="3">
         <v>900</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>900</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>400</v>
+      </c>
+      <c r="E44" s="3">
         <v>500</v>
-      </c>
-      <c r="E44" s="3">
-        <v>600</v>
       </c>
       <c r="F44" s="3">
         <v>600</v>
@@ -2500,158 +2596,167 @@
         <v>600</v>
       </c>
       <c r="H44" s="3">
+        <v>600</v>
+      </c>
+      <c r="I44" s="3">
         <v>500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1000</v>
-      </c>
-      <c r="R44" s="3">
-        <v>1200</v>
       </c>
       <c r="S44" s="3">
         <v>1200</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E45" s="3">
         <v>11200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1000</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E46" s="3">
         <v>59500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>54700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>60300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>55200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3700</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2659,7 +2764,7 @@
         <v>4200</v>
       </c>
       <c r="E47" s="3">
-        <v>1700</v>
+        <v>4200</v>
       </c>
       <c r="F47" s="3">
         <v>1700</v>
@@ -2677,37 +2782,40 @@
         <v>1700</v>
       </c>
       <c r="K47" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L47" s="3">
         <v>1800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1100</v>
-      </c>
-      <c r="R47" s="3">
-        <v>500</v>
       </c>
       <c r="S47" s="3">
         <v>500</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>500</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2718,16 +2826,16 @@
         <v>900</v>
       </c>
       <c r="F48" s="3">
+        <v>900</v>
+      </c>
+      <c r="G48" s="3">
         <v>100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
       </c>
       <c r="I48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>300</v>
@@ -2736,45 +2844,48 @@
         <v>300</v>
       </c>
       <c r="L48" s="3">
+        <v>300</v>
+      </c>
+      <c r="M48" s="3">
         <v>400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>600</v>
-      </c>
-      <c r="P48" s="3">
-        <v>400</v>
       </c>
       <c r="Q48" s="3">
         <v>400</v>
       </c>
       <c r="R48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S48" s="3">
         <v>300</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>300</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E49" s="3">
         <v>9600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10600</v>
-      </c>
-      <c r="F49" s="3">
-        <v>900</v>
       </c>
       <c r="G49" s="3">
         <v>900</v>
@@ -2783,7 +2894,7 @@
         <v>900</v>
       </c>
       <c r="I49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J49" s="3">
         <v>1000</v>
@@ -2798,13 +2909,13 @@
         <v>1000</v>
       </c>
       <c r="N49" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="O49" s="3">
         <v>900</v>
       </c>
       <c r="P49" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="Q49" s="3">
         <v>100</v>
@@ -2812,14 +2923,17 @@
       <c r="R49" s="3">
         <v>100</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
+      <c r="S49" s="3">
+        <v>100</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2941,8 +3061,8 @@
       <c r="E52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="3">
-        <v>100</v>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -2950,8 +3070,8 @@
       <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
+      <c r="I52" s="3">
+        <v>100</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
@@ -2959,18 +3079,18 @@
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
@@ -2981,13 +3101,16 @@
         <v>0</v>
       </c>
       <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
         <v>100</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>65500</v>
+      </c>
+      <c r="E54" s="3">
         <v>74200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>68000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>63100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>58000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4600</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,69 +3272,73 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E57" s="3">
         <v>6100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>900</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3213,37 +3347,37 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3500</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>500</v>
       </c>
       <c r="R58" s="3">
         <v>500</v>
@@ -3251,123 +3385,132 @@
       <c r="S58" s="3">
         <v>500</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>500</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E59" s="3">
         <v>18900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>5400</v>
       </c>
       <c r="K59" s="3">
         <v>5400</v>
       </c>
       <c r="L59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="M59" s="3">
         <v>4800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5100</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E60" s="3">
         <v>25000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>14500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6400</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3384,32 +3527,32 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>1000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>1800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>200</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3422,31 +3565,34 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E62" s="3">
         <v>1000</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
+      <c r="F62" s="3">
+        <v>1000</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
@@ -3458,13 +3604,13 @@
         <v>100</v>
       </c>
       <c r="N62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E66" s="3">
         <v>26000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6400</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-22800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-22200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-22300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-23600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-22000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-20900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-20200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-18600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-16900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5400</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>44600</v>
+      </c>
+      <c r="E76" s="3">
         <v>48200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>48800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>49500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>48600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-7400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-6700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-6600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1900</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,25 +4621,26 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>200</v>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -4465,22 +4664,25 @@
         <v>100</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
-        <v>1000</v>
-      </c>
       <c r="G89" s="3">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="H89" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,29 +5057,30 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -4867,25 +5088,25 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-200</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-100</v>
       </c>
       <c r="S91" s="3">
         <v>-100</v>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,29 +5232,32 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5700</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>200</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -5035,34 +5265,37 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-500</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-200</v>
       </c>
       <c r="P94" s="3">
         <v>-200</v>
       </c>
       <c r="Q94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R94" s="3">
         <v>-800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3200</v>
       </c>
-      <c r="F100" s="3">
-        <v>-500</v>
-      </c>
       <c r="G100" s="3">
-        <v>49400</v>
+        <v>49000</v>
       </c>
       <c r="H100" s="3">
+        <v>45900</v>
+      </c>
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3000</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>100</v>
       </c>
       <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9900</v>
       </c>
-      <c r="F102" s="3">
-        <v>500</v>
-      </c>
       <c r="G102" s="3">
-        <v>49700</v>
+        <v>50300</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="I102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
         <v>-200</v>
       </c>
       <c r="K102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UGRO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UGRO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>UGRO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E8" s="3">
         <v>21100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>19000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>18300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E9" s="3">
         <v>16200</v>
-      </c>
-      <c r="E9" s="3">
-        <v>14000</v>
       </c>
       <c r="F9" s="3">
         <v>14000</v>
       </c>
       <c r="G9" s="3">
+        <v>14000</v>
+      </c>
+      <c r="H9" s="3">
         <v>9900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E10" s="3">
         <v>4900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1700</v>
       </c>
       <c r="J10" s="3">
         <v>1700</v>
       </c>
       <c r="K10" s="3">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="L10" s="3">
         <v>1200</v>
       </c>
       <c r="M10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N10" s="3">
         <v>1100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1083,43 +1103,43 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-1000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>800</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>500</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1127,31 +1147,34 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E17" s="3">
         <v>21900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>19600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,13 +1380,14 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1368,23 +1402,23 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1395,78 +1429,84 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-1400</v>
       </c>
       <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
-        <v>1400</v>
-      </c>
       <c r="H21" s="3">
-        <v>-800</v>
+        <v>1300</v>
       </c>
       <c r="I21" s="3">
         <v>-600</v>
       </c>
       <c r="J21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1483,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>1000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>400</v>
       </c>
       <c r="J22" s="3">
         <v>400</v>
@@ -1495,25 +1535,25 @@
         <v>400</v>
       </c>
       <c r="L22" s="3">
+        <v>400</v>
+      </c>
+      <c r="M22" s="3">
         <v>300</v>
-      </c>
-      <c r="M22" s="3">
-        <v>900</v>
       </c>
       <c r="N22" s="3">
         <v>900</v>
       </c>
       <c r="O22" s="3">
+        <v>900</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1524,67 +1564,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1592,7 +1638,7 @@
         <v>-100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,13 +2122,16 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2076,23 +2146,23 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2103,78 +2173,84 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E41" s="3">
         <v>27100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>34600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>40500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>50400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>49900</v>
-      </c>
-      <c r="I41" s="3">
-        <v>200</v>
       </c>
       <c r="J41" s="3">
         <v>200</v>
       </c>
       <c r="K41" s="3">
+        <v>200</v>
+      </c>
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>600</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,67 +2609,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E43" s="3">
         <v>13500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1000</v>
-      </c>
-      <c r="J43" s="3">
-        <v>900</v>
       </c>
       <c r="K43" s="3">
         <v>900</v>
       </c>
       <c r="L43" s="3">
+        <v>900</v>
+      </c>
+      <c r="M43" s="3">
         <v>1400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1000</v>
-      </c>
-      <c r="S43" s="3">
-        <v>900</v>
       </c>
       <c r="T43" s="3">
         <v>900</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>900</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2587,10 +2683,10 @@
         <v>400</v>
       </c>
       <c r="E44" s="3">
+        <v>400</v>
+      </c>
+      <c r="F44" s="3">
         <v>500</v>
-      </c>
-      <c r="F44" s="3">
-        <v>600</v>
       </c>
       <c r="G44" s="3">
         <v>600</v>
@@ -2599,164 +2695,173 @@
         <v>600</v>
       </c>
       <c r="I44" s="3">
+        <v>600</v>
+      </c>
+      <c r="J44" s="3">
         <v>500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1000</v>
-      </c>
-      <c r="S44" s="3">
-        <v>1200</v>
       </c>
       <c r="T44" s="3">
         <v>1200</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E45" s="3">
         <v>10100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1000</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E46" s="3">
         <v>51000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>59500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>54700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>60300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>55200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3700</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2767,7 +2872,7 @@
         <v>4200</v>
       </c>
       <c r="F47" s="3">
-        <v>1700</v>
+        <v>4200</v>
       </c>
       <c r="G47" s="3">
         <v>1700</v>
@@ -2785,42 +2890,45 @@
         <v>1700</v>
       </c>
       <c r="L47" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M47" s="3">
         <v>1800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1100</v>
-      </c>
-      <c r="S47" s="3">
-        <v>500</v>
       </c>
       <c r="T47" s="3">
         <v>500</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>500</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="E48" s="3">
         <v>900</v>
@@ -2829,16 +2937,16 @@
         <v>900</v>
       </c>
       <c r="G48" s="3">
+        <v>900</v>
+      </c>
+      <c r="H48" s="3">
         <v>100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>200</v>
       </c>
       <c r="I48" s="3">
         <v>200</v>
       </c>
       <c r="J48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>300</v>
@@ -2847,48 +2955,51 @@
         <v>300</v>
       </c>
       <c r="M48" s="3">
+        <v>300</v>
+      </c>
+      <c r="N48" s="3">
         <v>400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>600</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>400</v>
       </c>
       <c r="R48" s="3">
         <v>400</v>
       </c>
       <c r="S48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T48" s="3">
         <v>300</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>300</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E49" s="3">
         <v>9400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>9600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10600</v>
-      </c>
-      <c r="G49" s="3">
-        <v>900</v>
       </c>
       <c r="H49" s="3">
         <v>900</v>
@@ -2897,7 +3008,7 @@
         <v>900</v>
       </c>
       <c r="J49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K49" s="3">
         <v>1000</v>
@@ -2912,13 +3023,13 @@
         <v>1000</v>
       </c>
       <c r="O49" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="P49" s="3">
         <v>900</v>
       </c>
       <c r="Q49" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="R49" s="3">
         <v>100</v>
@@ -2926,14 +3037,17 @@
       <c r="S49" s="3">
         <v>100</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
+      <c r="T49" s="3">
+        <v>100</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3064,8 +3184,8 @@
       <c r="F52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="3">
-        <v>100</v>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
@@ -3073,8 +3193,8 @@
       <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
+      <c r="J52" s="3">
+        <v>100</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
@@ -3082,18 +3202,18 @@
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
@@ -3104,13 +3224,16 @@
         <v>0</v>
       </c>
       <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
         <v>100</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E54" s="3">
         <v>65500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>74200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>68000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>63100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>58000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4600</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3403,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3282,66 +3413,69 @@
         <v>7900</v>
       </c>
       <c r="E57" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F57" s="3">
         <v>6100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>900</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -3350,37 +3484,37 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3500</v>
-      </c>
-      <c r="R58" s="3">
-        <v>500</v>
       </c>
       <c r="S58" s="3">
         <v>500</v>
@@ -3388,129 +3522,138 @@
       <c r="T58" s="3">
         <v>500</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>500</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E59" s="3">
         <v>12100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>18900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6000</v>
-      </c>
-      <c r="K59" s="3">
-        <v>5400</v>
       </c>
       <c r="L59" s="3">
         <v>5400</v>
       </c>
       <c r="M59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="N59" s="3">
         <v>4800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5100</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E60" s="3">
         <v>20100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>25000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6400</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3530,32 +3673,32 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>1000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>1800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>200</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3568,34 +3711,37 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E62" s="3">
         <v>800</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1000</v>
       </c>
       <c r="F62" s="3">
         <v>1000</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
+      <c r="G62" s="3">
+        <v>1000</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
@@ -3607,13 +3753,13 @@
         <v>100</v>
       </c>
       <c r="O62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E66" s="3">
         <v>20900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>26000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6400</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-23500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-22800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-22200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-22300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-23600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-22000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-20900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-20200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-18600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-16900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-14300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5400</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E76" s="3">
         <v>44600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>48200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>48800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>49500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>48600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-7400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-6700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-6600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-5300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1900</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,13 +4820,14 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
+      <c r="D83" s="3">
+        <v>400</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
@@ -4637,10 +4836,10 @@
         <v>200</v>
       </c>
       <c r="G83" s="3">
+        <v>200</v>
+      </c>
+      <c r="H83" s="3">
         <v>100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>-200</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -4667,22 +4866,25 @@
         <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
       <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
         <v>100</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>8</v>
+      <c r="D89" s="3">
+        <v>-1200</v>
       </c>
       <c r="E89" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
-        <v>1300</v>
-      </c>
       <c r="H89" s="3">
-        <v>3900</v>
+        <v>1000</v>
       </c>
       <c r="I89" s="3">
+        <v>300</v>
+      </c>
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,32 +5278,33 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -5091,25 +5312,25 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-200</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-100</v>
       </c>
       <c r="T91" s="3">
         <v>-100</v>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,32 +5462,35 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3">
+        <v>-3100</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5700</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -5268,34 +5498,37 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-500</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-200</v>
       </c>
       <c r="Q94" s="3">
         <v>-200</v>
       </c>
       <c r="R94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S94" s="3">
         <v>-800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3200</v>
       </c>
-      <c r="G100" s="3">
-        <v>49000</v>
-      </c>
       <c r="H100" s="3">
-        <v>45900</v>
+        <v>-500</v>
       </c>
       <c r="I100" s="3">
+        <v>49400</v>
+      </c>
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3000</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>100</v>
       </c>
       <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>-4300</v>
       </c>
       <c r="E102" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-5900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9900</v>
       </c>
-      <c r="G102" s="3">
-        <v>50300</v>
-      </c>
       <c r="H102" s="3">
-        <v>50000</v>
+        <v>500</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>49700</v>
       </c>
       <c r="J102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
         <v>-200</v>
       </c>
       <c r="L102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UGRO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UGRO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>UGRO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E8" s="3">
         <v>16300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>21100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>19000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>18300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E9" s="3">
         <v>12800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>16200</v>
-      </c>
-      <c r="F9" s="3">
-        <v>14000</v>
       </c>
       <c r="G9" s="3">
         <v>14000</v>
       </c>
       <c r="H9" s="3">
+        <v>14000</v>
+      </c>
+      <c r="I9" s="3">
         <v>9900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E10" s="3">
         <v>3500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2600</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1700</v>
       </c>
       <c r="K10" s="3">
         <v>1700</v>
       </c>
       <c r="L10" s="3">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="M10" s="3">
         <v>1200</v>
       </c>
       <c r="N10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O10" s="3">
         <v>1100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,13 +977,14 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
+      <c r="D12" s="3">
+        <v>3300</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,13 +1105,16 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1106,43 +1126,43 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>800</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>500</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1150,16 +1170,19 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>300</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
+      <c r="E15" s="3">
+        <v>300</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
@@ -1176,8 +1199,8 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E17" s="3">
         <v>18200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>21900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>19600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,17 +1414,18 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1405,23 +1439,23 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1432,81 +1466,87 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1300</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-600</v>
       </c>
       <c r="J21" s="3">
         <v>-600</v>
       </c>
       <c r="K21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1526,10 +1566,10 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>1000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>400</v>
       </c>
       <c r="K22" s="3">
         <v>400</v>
@@ -1538,25 +1578,25 @@
         <v>400</v>
       </c>
       <c r="M22" s="3">
+        <v>400</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
-      </c>
-      <c r="N22" s="3">
-        <v>900</v>
       </c>
       <c r="O22" s="3">
         <v>900</v>
       </c>
       <c r="P22" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1567,70 +1607,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,7 +1687,7 @@
         <v>-100</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1691,8 +1737,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,17 +2192,20 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2149,23 +2219,23 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2176,81 +2246,87 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2574,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E41" s="3">
         <v>22800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>27100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>34600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>40500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>50400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>49900</v>
-      </c>
-      <c r="J41" s="3">
-        <v>200</v>
       </c>
       <c r="K41" s="3">
         <v>200</v>
       </c>
       <c r="L41" s="3">
+        <v>200</v>
+      </c>
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>600</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,84 +2702,90 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E43" s="3">
         <v>15400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1000</v>
-      </c>
-      <c r="K43" s="3">
-        <v>900</v>
       </c>
       <c r="L43" s="3">
         <v>900</v>
       </c>
       <c r="M43" s="3">
+        <v>900</v>
+      </c>
+      <c r="N43" s="3">
         <v>1400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1000</v>
-      </c>
-      <c r="T43" s="3">
-        <v>900</v>
       </c>
       <c r="U43" s="3">
         <v>900</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>900</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3">
         <v>400</v>
       </c>
       <c r="F44" s="3">
+        <v>400</v>
+      </c>
+      <c r="G44" s="3">
         <v>500</v>
-      </c>
-      <c r="G44" s="3">
-        <v>600</v>
       </c>
       <c r="H44" s="3">
         <v>600</v>
@@ -2698,175 +2794,184 @@
         <v>600</v>
       </c>
       <c r="J44" s="3">
+        <v>600</v>
+      </c>
+      <c r="K44" s="3">
         <v>500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1000</v>
-      </c>
-      <c r="T44" s="3">
-        <v>1200</v>
       </c>
       <c r="U44" s="3">
         <v>1200</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E45" s="3">
         <v>6100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1000</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E46" s="3">
         <v>44800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>51000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>59500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>54700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>60300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>55200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3700</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4200</v>
+        <v>2500</v>
       </c>
       <c r="E47" s="3">
         <v>4200</v>
@@ -2875,7 +2980,7 @@
         <v>4200</v>
       </c>
       <c r="G47" s="3">
-        <v>1700</v>
+        <v>4200</v>
       </c>
       <c r="H47" s="3">
         <v>1700</v>
@@ -2893,45 +2998,48 @@
         <v>1700</v>
       </c>
       <c r="M47" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N47" s="3">
         <v>1800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1100</v>
-      </c>
-      <c r="T47" s="3">
-        <v>500</v>
       </c>
       <c r="U47" s="3">
         <v>500</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>500</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1600</v>
-      </c>
-      <c r="E48" s="3">
-        <v>900</v>
       </c>
       <c r="F48" s="3">
         <v>900</v>
@@ -2940,16 +3048,16 @@
         <v>900</v>
       </c>
       <c r="H48" s="3">
+        <v>900</v>
+      </c>
+      <c r="I48" s="3">
         <v>100</v>
-      </c>
-      <c r="I48" s="3">
-        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
       </c>
       <c r="K48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>300</v>
@@ -2958,51 +3066,54 @@
         <v>300</v>
       </c>
       <c r="N48" s="3">
+        <v>300</v>
+      </c>
+      <c r="O48" s="3">
         <v>400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>600</v>
-      </c>
-      <c r="R48" s="3">
-        <v>400</v>
       </c>
       <c r="S48" s="3">
         <v>400</v>
       </c>
       <c r="T48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U48" s="3">
         <v>300</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>300</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E49" s="3">
         <v>15500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>9400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>10600</v>
-      </c>
-      <c r="H49" s="3">
-        <v>900</v>
       </c>
       <c r="I49" s="3">
         <v>900</v>
@@ -3011,7 +3122,7 @@
         <v>900</v>
       </c>
       <c r="K49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L49" s="3">
         <v>1000</v>
@@ -3026,13 +3137,13 @@
         <v>1000</v>
       </c>
       <c r="P49" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="Q49" s="3">
         <v>900</v>
       </c>
       <c r="R49" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="S49" s="3">
         <v>100</v>
@@ -3040,14 +3151,17 @@
       <c r="T49" s="3">
         <v>100</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>8</v>
+      <c r="U49" s="3">
+        <v>100</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3287,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3187,8 +3307,8 @@
       <c r="G52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H52" s="3">
-        <v>100</v>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
@@ -3196,8 +3316,8 @@
       <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
+      <c r="K52" s="3">
+        <v>100</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
@@ -3205,18 +3325,18 @@
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>100</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
@@ -3227,13 +3347,16 @@
         <v>0</v>
       </c>
       <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
         <v>100</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>58400</v>
+      </c>
+      <c r="E54" s="3">
         <v>66100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>65500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>74200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>68000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>63100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>58000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4600</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,70 +3534,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7900</v>
+        <v>6500</v>
       </c>
       <c r="E57" s="3">
         <v>7900</v>
       </c>
       <c r="F57" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G57" s="3">
         <v>6100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>900</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3477,8 +3611,8 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3487,37 +3621,37 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>1000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3500</v>
-      </c>
-      <c r="S58" s="3">
-        <v>500</v>
       </c>
       <c r="T58" s="3">
         <v>500</v>
@@ -3525,135 +3659,144 @@
       <c r="U58" s="3">
         <v>500</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>500</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E59" s="3">
         <v>10200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>18900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6000</v>
-      </c>
-      <c r="L59" s="3">
-        <v>5400</v>
       </c>
       <c r="M59" s="3">
         <v>5400</v>
       </c>
       <c r="N59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="O59" s="3">
         <v>4800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5100</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E60" s="3">
         <v>18200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>20100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>25000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6400</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3676,32 +3819,32 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>1000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>1800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>200</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3714,37 +3857,40 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>800</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1000</v>
       </c>
       <c r="G62" s="3">
         <v>1000</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
+      <c r="H62" s="3">
+        <v>1000</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
@@ -3756,13 +3902,13 @@
         <v>100</v>
       </c>
       <c r="P62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E66" s="3">
         <v>19800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>20900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>26000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6400</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-25300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-23500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-22800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-22200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-22300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-23600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-22000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-20900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-20200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-18600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-16900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-14300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-10000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-6800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5400</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E76" s="3">
         <v>46300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>44600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>48200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>48800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>49500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>48600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-7400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-6700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-6600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-5000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-5300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-3800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1900</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,16 +5019,17 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>500</v>
+      </c>
+      <c r="E83" s="3">
         <v>400</v>
-      </c>
-      <c r="E83" s="3">
-        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
@@ -4839,7 +5038,7 @@
         <v>200</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -4869,22 +5068,25 @@
         <v>100</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
       <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
         <v>100</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,35 +5499,36 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -5315,25 +5536,25 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-200</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-100</v>
       </c>
       <c r="U91" s="3">
         <v>-100</v>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,35 +5692,38 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-2600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5700</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -5501,34 +5731,37 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-200</v>
       </c>
       <c r="R94" s="3">
         <v>-200</v>
       </c>
       <c r="S94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T94" s="3">
         <v>-800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6042,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-3800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>49400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3000</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>100</v>
       </c>
       <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6172,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>49700</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
         <v>-200</v>
       </c>
       <c r="M102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UGRO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UGRO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>UGRO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,308 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E8" s="3">
         <v>12400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>21100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>19000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>18300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E9" s="3">
         <v>9800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>16200</v>
-      </c>
-      <c r="G9" s="3">
-        <v>14000</v>
       </c>
       <c r="H9" s="3">
         <v>14000</v>
       </c>
       <c r="I9" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J9" s="3">
         <v>9900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E10" s="3">
         <v>2600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2600</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1700</v>
       </c>
       <c r="L10" s="3">
         <v>1700</v>
       </c>
       <c r="M10" s="3">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="N10" s="3">
         <v>1200</v>
       </c>
       <c r="O10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P10" s="3">
         <v>1100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,17 +990,18 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3">
         <v>3300</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1043,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,17 +1124,20 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1700</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -1129,43 +1148,43 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-1000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>800</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>500</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
@@ -1173,8 +1192,11 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,8 +1206,8 @@
       <c r="E15" s="3">
         <v>300</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
+      <c r="F15" s="3">
+        <v>300</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -1202,8 +1224,8 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1238,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E17" s="3">
         <v>21000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>21900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>19600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>18200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-8600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,20 +1447,21 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1442,23 +1475,23 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1469,84 +1502,90 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-8200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-600</v>
       </c>
       <c r="K21" s="3">
         <v>-600</v>
       </c>
       <c r="L21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1569,10 +1608,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>1000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>400</v>
       </c>
       <c r="L22" s="3">
         <v>400</v>
@@ -1581,25 +1620,25 @@
         <v>400</v>
       </c>
       <c r="N22" s="3">
+        <v>400</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
-      </c>
-      <c r="O22" s="3">
-        <v>900</v>
       </c>
       <c r="P22" s="3">
         <v>900</v>
       </c>
       <c r="Q22" s="3">
+        <v>900</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
-      </c>
-      <c r="R22" s="3">
-        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1610,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,7 +1735,7 @@
         <v>-100</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1740,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,20 +2261,23 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2222,23 +2291,23 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2249,84 +2318,90 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E41" s="3">
         <v>18600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>22800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>27100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>34600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>40500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>50400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>49900</v>
-      </c>
-      <c r="K41" s="3">
-        <v>200</v>
       </c>
       <c r="L41" s="3">
         <v>200</v>
       </c>
       <c r="M41" s="3">
+        <v>200</v>
+      </c>
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>600</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,73 +2794,79 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E43" s="3">
         <v>13500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>15400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>13100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1000</v>
-      </c>
-      <c r="L43" s="3">
-        <v>900</v>
       </c>
       <c r="M43" s="3">
         <v>900</v>
       </c>
       <c r="N43" s="3">
+        <v>900</v>
+      </c>
+      <c r="O43" s="3">
         <v>1400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1000</v>
-      </c>
-      <c r="U43" s="3">
-        <v>900</v>
       </c>
       <c r="V43" s="3">
         <v>900</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>900</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2779,16 +2874,16 @@
         <v>300</v>
       </c>
       <c r="E44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F44" s="3">
         <v>400</v>
       </c>
       <c r="G44" s="3">
+        <v>400</v>
+      </c>
+      <c r="H44" s="3">
         <v>500</v>
-      </c>
-      <c r="H44" s="3">
-        <v>600</v>
       </c>
       <c r="I44" s="3">
         <v>600</v>
@@ -2797,184 +2892,193 @@
         <v>600</v>
       </c>
       <c r="K44" s="3">
+        <v>600</v>
+      </c>
+      <c r="L44" s="3">
         <v>500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1000</v>
-      </c>
-      <c r="U44" s="3">
-        <v>1200</v>
       </c>
       <c r="V44" s="3">
         <v>1200</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E45" s="3">
         <v>4900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1000</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E46" s="3">
         <v>37300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>44800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>51000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>59500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>54700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>60300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>55200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3700</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E47" s="3">
         <v>2500</v>
-      </c>
-      <c r="E47" s="3">
-        <v>4200</v>
       </c>
       <c r="F47" s="3">
         <v>4200</v>
@@ -2983,7 +3087,7 @@
         <v>4200</v>
       </c>
       <c r="H47" s="3">
-        <v>1700</v>
+        <v>4200</v>
       </c>
       <c r="I47" s="3">
         <v>1700</v>
@@ -3001,48 +3105,51 @@
         <v>1700</v>
       </c>
       <c r="N47" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O47" s="3">
         <v>1800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1100</v>
-      </c>
-      <c r="U47" s="3">
-        <v>500</v>
       </c>
       <c r="V47" s="3">
         <v>500</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>500</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E48" s="3">
         <v>2000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1600</v>
-      </c>
-      <c r="F48" s="3">
-        <v>900</v>
       </c>
       <c r="G48" s="3">
         <v>900</v>
@@ -3051,16 +3158,16 @@
         <v>900</v>
       </c>
       <c r="I48" s="3">
+        <v>900</v>
+      </c>
+      <c r="J48" s="3">
         <v>100</v>
-      </c>
-      <c r="J48" s="3">
-        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
       </c>
       <c r="L48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>300</v>
@@ -3069,54 +3176,57 @@
         <v>300</v>
       </c>
       <c r="O48" s="3">
+        <v>300</v>
+      </c>
+      <c r="P48" s="3">
         <v>400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>600</v>
-      </c>
-      <c r="S48" s="3">
-        <v>400</v>
       </c>
       <c r="T48" s="3">
         <v>400</v>
       </c>
       <c r="U48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V48" s="3">
         <v>300</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>300</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E49" s="3">
         <v>16600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>15500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>9600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>10600</v>
-      </c>
-      <c r="I49" s="3">
-        <v>900</v>
       </c>
       <c r="J49" s="3">
         <v>900</v>
@@ -3125,7 +3235,7 @@
         <v>900</v>
       </c>
       <c r="L49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M49" s="3">
         <v>1000</v>
@@ -3140,13 +3250,13 @@
         <v>1000</v>
       </c>
       <c r="Q49" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="R49" s="3">
         <v>900</v>
       </c>
       <c r="S49" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="T49" s="3">
         <v>100</v>
@@ -3154,14 +3264,17 @@
       <c r="U49" s="3">
         <v>100</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>8</v>
+      <c r="V49" s="3">
+        <v>100</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3310,8 +3429,8 @@
       <c r="H52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="3">
-        <v>100</v>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
@@ -3319,8 +3438,8 @@
       <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
+      <c r="L52" s="3">
+        <v>100</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
@@ -3328,18 +3447,18 @@
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
       <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>100</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
@@ -3350,13 +3469,16 @@
         <v>0</v>
       </c>
       <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
         <v>100</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>62100</v>
+      </c>
+      <c r="E54" s="3">
         <v>58400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>66100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>65500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>74200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>68000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>63100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>58000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4600</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,78 +3664,82 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E57" s="3">
         <v>6500</v>
-      </c>
-      <c r="E57" s="3">
-        <v>7900</v>
       </c>
       <c r="F57" s="3">
         <v>7900</v>
       </c>
       <c r="G57" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H57" s="3">
         <v>6100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>900</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>3800</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
@@ -3614,8 +3747,8 @@
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3624,37 +3757,37 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3500</v>
-      </c>
-      <c r="T58" s="3">
-        <v>500</v>
       </c>
       <c r="U58" s="3">
         <v>500</v>
@@ -3662,141 +3795,150 @@
       <c r="V58" s="3">
         <v>500</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>500</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E59" s="3">
         <v>12500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>18900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6000</v>
-      </c>
-      <c r="M59" s="3">
-        <v>5400</v>
       </c>
       <c r="N59" s="3">
         <v>5400</v>
       </c>
       <c r="O59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="P59" s="3">
         <v>4800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5100</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E60" s="3">
         <v>19000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>20100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>25000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>18200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>13500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6400</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3822,32 +3964,32 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>1000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>200</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -3860,40 +4002,43 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E62" s="3">
         <v>2000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>800</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1000</v>
       </c>
       <c r="H62" s="3">
         <v>1000</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
+      <c r="I62" s="3">
+        <v>1000</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
       <c r="M62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
@@ -3905,13 +4050,13 @@
         <v>100</v>
       </c>
       <c r="Q62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
+      <c r="S62" s="3">
+        <v>0</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
@@ -3925,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E66" s="3">
         <v>20900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>26000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6400</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-33900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-25300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-23500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-22800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-22200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-22300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-23600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-22000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-20900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-20200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-18600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-16900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-14300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-10000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-8500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-6800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-5400</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E76" s="3">
         <v>37500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>46300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>44600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>48200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>48800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>49500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>48600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-7400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-6700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-6600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-5600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-5000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-3500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1900</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,19 +5217,20 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>400</v>
+      </c>
+      <c r="E83" s="3">
         <v>500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
@@ -5041,7 +5239,7 @@
         <v>200</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -5071,22 +5269,25 @@
         <v>100</v>
       </c>
       <c r="S83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
       <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
         <v>100</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
-      </c>
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,38 +5719,39 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -5539,25 +5759,25 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-200</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-100</v>
       </c>
       <c r="V91" s="3">
         <v>-100</v>
@@ -5565,8 +5785,11 @@
       <c r="W91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,38 +5921,41 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-2600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5700</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -5734,34 +5963,37 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-500</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-200</v>
       </c>
       <c r="S94" s="3">
         <v>-200</v>
       </c>
       <c r="T94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U94" s="3">
         <v>-800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-3800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>49400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3000</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
         <v>100</v>
       </c>
       <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>49700</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>-200</v>
       </c>
       <c r="N102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UGRO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UGRO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>UGRO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E8" s="3">
         <v>17300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>21100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>19000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>18300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E9" s="3">
         <v>14100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>16200</v>
-      </c>
-      <c r="H9" s="3">
-        <v>14000</v>
       </c>
       <c r="I9" s="3">
         <v>14000</v>
       </c>
       <c r="J9" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K9" s="3">
         <v>9900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E10" s="3">
         <v>3200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2600</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1700</v>
       </c>
       <c r="M10" s="3">
         <v>1700</v>
       </c>
       <c r="N10" s="3">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="O10" s="3">
         <v>1200</v>
       </c>
       <c r="P10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,20 +1004,21 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="3">
         <v>3300</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,20 +1144,23 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>1000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1700</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1151,43 +1171,43 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>800</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>500</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1209,8 +1232,8 @@
       <c r="F15" s="3">
         <v>300</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
+      <c r="G15" s="3">
+        <v>300</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -1227,8 +1250,8 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E17" s="3">
         <v>21200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>21000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>21900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>19600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-8600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,23 +1481,24 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1478,23 +1512,23 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1505,92 +1539,98 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-8200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1300</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-600</v>
       </c>
       <c r="L21" s="3">
         <v>-600</v>
       </c>
       <c r="M21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1611,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>1000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>400</v>
       </c>
       <c r="M22" s="3">
         <v>400</v>
@@ -1623,25 +1663,25 @@
         <v>400</v>
       </c>
       <c r="O22" s="3">
+        <v>400</v>
+      </c>
+      <c r="P22" s="3">
         <v>300</v>
-      </c>
-      <c r="P22" s="3">
-        <v>900</v>
       </c>
       <c r="Q22" s="3">
         <v>900</v>
       </c>
       <c r="R22" s="3">
+        <v>900</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
-      </c>
-      <c r="S22" s="3">
-        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
       </c>
       <c r="U22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1652,76 +1692,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1738,7 +1784,7 @@
         <v>-100</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-8700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-8700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,23 +2331,26 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2294,23 +2364,23 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2321,87 +2391,93 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-8700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-8700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E41" s="3">
         <v>12000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>18600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>22800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>27100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>34600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>40500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>50400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>49900</v>
-      </c>
-      <c r="L41" s="3">
-        <v>200</v>
       </c>
       <c r="M41" s="3">
         <v>200</v>
       </c>
       <c r="N41" s="3">
+        <v>200</v>
+      </c>
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>600</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,76 +2887,82 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E43" s="3">
         <v>18400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>15400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>13500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>13100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1000</v>
-      </c>
-      <c r="M43" s="3">
-        <v>900</v>
       </c>
       <c r="N43" s="3">
         <v>900</v>
       </c>
       <c r="O43" s="3">
+        <v>900</v>
+      </c>
+      <c r="P43" s="3">
         <v>1400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1000</v>
-      </c>
-      <c r="V43" s="3">
-        <v>900</v>
       </c>
       <c r="W43" s="3">
         <v>900</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2877,16 +2973,16 @@
         <v>300</v>
       </c>
       <c r="F44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G44" s="3">
         <v>400</v>
       </c>
       <c r="H44" s="3">
+        <v>400</v>
+      </c>
+      <c r="I44" s="3">
         <v>500</v>
-      </c>
-      <c r="I44" s="3">
-        <v>600</v>
       </c>
       <c r="J44" s="3">
         <v>600</v>
@@ -2895,182 +2991,191 @@
         <v>600</v>
       </c>
       <c r="L44" s="3">
+        <v>600</v>
+      </c>
+      <c r="M44" s="3">
         <v>500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1000</v>
-      </c>
-      <c r="V44" s="3">
-        <v>1200</v>
       </c>
       <c r="W44" s="3">
         <v>1200</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E45" s="3">
         <v>3800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1000</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E46" s="3">
         <v>34600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>37300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>44800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>51000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>59500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>54700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>60300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>55200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3700</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3078,10 +3183,10 @@
         <v>2600</v>
       </c>
       <c r="E47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F47" s="3">
         <v>2500</v>
-      </c>
-      <c r="F47" s="3">
-        <v>4200</v>
       </c>
       <c r="G47" s="3">
         <v>4200</v>
@@ -3090,7 +3195,7 @@
         <v>4200</v>
       </c>
       <c r="I47" s="3">
-        <v>1700</v>
+        <v>4200</v>
       </c>
       <c r="J47" s="3">
         <v>1700</v>
@@ -3108,37 +3213,40 @@
         <v>1700</v>
       </c>
       <c r="O47" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P47" s="3">
         <v>1800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1100</v>
-      </c>
-      <c r="V47" s="3">
-        <v>500</v>
       </c>
       <c r="W47" s="3">
         <v>500</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3146,13 +3254,13 @@
         <v>3900</v>
       </c>
       <c r="E48" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F48" s="3">
         <v>2000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1600</v>
-      </c>
-      <c r="G48" s="3">
-        <v>900</v>
       </c>
       <c r="H48" s="3">
         <v>900</v>
@@ -3161,16 +3269,16 @@
         <v>900</v>
       </c>
       <c r="J48" s="3">
+        <v>900</v>
+      </c>
+      <c r="K48" s="3">
         <v>100</v>
-      </c>
-      <c r="K48" s="3">
-        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
       </c>
       <c r="M48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N48" s="3">
         <v>300</v>
@@ -3179,57 +3287,60 @@
         <v>300</v>
       </c>
       <c r="P48" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q48" s="3">
         <v>400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>600</v>
-      </c>
-      <c r="T48" s="3">
-        <v>400</v>
       </c>
       <c r="U48" s="3">
         <v>400</v>
       </c>
       <c r="V48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W48" s="3">
         <v>300</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E49" s="3">
         <v>21000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>16600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>15500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>9400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>9600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>10600</v>
-      </c>
-      <c r="J49" s="3">
-        <v>900</v>
       </c>
       <c r="K49" s="3">
         <v>900</v>
@@ -3238,7 +3349,7 @@
         <v>900</v>
       </c>
       <c r="M49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="N49" s="3">
         <v>1000</v>
@@ -3253,13 +3364,13 @@
         <v>1000</v>
       </c>
       <c r="R49" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="S49" s="3">
         <v>900</v>
       </c>
       <c r="T49" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="U49" s="3">
         <v>100</v>
@@ -3267,14 +3378,17 @@
       <c r="V49" s="3">
         <v>100</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>8</v>
+      <c r="W49" s="3">
+        <v>100</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3432,8 +3552,8 @@
       <c r="I52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J52" s="3">
-        <v>100</v>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
@@ -3441,8 +3561,8 @@
       <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
+      <c r="M52" s="3">
+        <v>100</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>8</v>
@@ -3450,18 +3570,18 @@
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
       <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>100</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
@@ -3472,13 +3592,16 @@
         <v>0</v>
       </c>
       <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
         <v>100</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>64100</v>
+      </c>
+      <c r="E54" s="3">
         <v>62100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>58400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>66100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>65500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>74200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>68000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>63100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>58000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4600</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,93 +3795,97 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E57" s="3">
         <v>10000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6500</v>
-      </c>
-      <c r="F57" s="3">
-        <v>7900</v>
       </c>
       <c r="G57" s="3">
         <v>7900</v>
       </c>
       <c r="H57" s="3">
+        <v>7900</v>
+      </c>
+      <c r="I57" s="3">
         <v>6100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>900</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E58" s="3">
         <v>3800</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -3760,37 +3894,37 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3500</v>
-      </c>
-      <c r="U58" s="3">
-        <v>500</v>
       </c>
       <c r="V58" s="3">
         <v>500</v>
@@ -3798,147 +3932,156 @@
       <c r="W58" s="3">
         <v>500</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E59" s="3">
         <v>10500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>18900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6000</v>
-      </c>
-      <c r="N59" s="3">
-        <v>5400</v>
       </c>
       <c r="O59" s="3">
         <v>5400</v>
       </c>
       <c r="P59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="Q59" s="3">
         <v>4800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5100</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E60" s="3">
         <v>24300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>19000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>20100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>25000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>14000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>13500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6400</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3967,32 +4110,32 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>1000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>1800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>200</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4005,43 +4148,46 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E62" s="3">
         <v>3100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>800</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1000</v>
       </c>
       <c r="I62" s="3">
         <v>1000</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
+      <c r="J62" s="3">
+        <v>1000</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
       <c r="N62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
@@ -4053,13 +4199,13 @@
         <v>100</v>
       </c>
       <c r="R62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
+      <c r="T62" s="3">
+        <v>0</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>8</v>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E66" s="3">
         <v>27300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>20900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>26000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6400</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-43300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-38100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-33900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-25300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-23500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-22800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-22200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-22300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-23600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-22000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-20900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-20200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-18600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-16900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-14300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-10000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-8500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-6800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-5900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-5400</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E76" s="3">
         <v>34700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>37500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>46300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>44600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>48200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>48800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>49500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>48600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-7400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-6700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-6600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-5600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-5300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-3000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1900</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-8700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5227,13 +5426,13 @@
         <v>400</v>
       </c>
       <c r="E83" s="3">
+        <v>400</v>
+      </c>
+      <c r="F83" s="3">
         <v>500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
@@ -5242,7 +5441,7 @@
         <v>200</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -5272,22 +5471,25 @@
         <v>100</v>
       </c>
       <c r="T83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
       <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
         <v>100</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
-      </c>
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,41 +5940,42 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -5762,25 +5983,25 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-200</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-100</v>
       </c>
       <c r="W91" s="3">
         <v>-100</v>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,41 +6151,44 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-2600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5700</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -5966,34 +6196,37 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-500</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-200</v>
       </c>
       <c r="T94" s="3">
         <v>-200</v>
       </c>
       <c r="U94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V94" s="3">
         <v>-800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6533,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-3800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>49400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3000</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
         <v>100</v>
       </c>
       <c r="X100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>49700</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
         <v>-200</v>
       </c>
       <c r="O102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UGRO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UGRO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>UGRO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,334 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E8" s="3">
         <v>16800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>17300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>16300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>21100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>19000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>18300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E9" s="3">
         <v>13900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>16200</v>
-      </c>
-      <c r="I9" s="3">
-        <v>14000</v>
       </c>
       <c r="J9" s="3">
         <v>14000</v>
       </c>
       <c r="K9" s="3">
+        <v>14000</v>
+      </c>
+      <c r="L9" s="3">
         <v>9900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E10" s="3">
         <v>2900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2600</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1700</v>
       </c>
       <c r="N10" s="3">
         <v>1700</v>
       </c>
       <c r="O10" s="3">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="P10" s="3">
         <v>1200</v>
       </c>
       <c r="Q10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R10" s="3">
         <v>1100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1016,11 +1030,11 @@
       <c r="E12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3">
         <v>3300</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>8</v>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,23 +1164,26 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1700</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1174,43 +1194,43 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>800</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>500</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1218,8 +1238,11 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1235,8 +1258,8 @@
       <c r="G15" s="3">
         <v>300</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
+      <c r="H15" s="3">
+        <v>300</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -1253,8 +1276,8 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E17" s="3">
         <v>21800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>21200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>21000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>21900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>19600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,26 +1515,27 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1515,23 +1549,23 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1542,99 +1576,105 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-8200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1300</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-600</v>
       </c>
       <c r="M21" s="3">
         <v>-600</v>
       </c>
       <c r="N21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
@@ -1654,10 +1694,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>1000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>400</v>
       </c>
       <c r="N22" s="3">
         <v>400</v>
@@ -1666,25 +1706,25 @@
         <v>400</v>
       </c>
       <c r="P22" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q22" s="3">
         <v>300</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>900</v>
       </c>
       <c r="R22" s="3">
         <v>900</v>
       </c>
       <c r="S22" s="3">
+        <v>900</v>
+      </c>
+      <c r="T22" s="3">
         <v>200</v>
-      </c>
-      <c r="T22" s="3">
-        <v>100</v>
       </c>
       <c r="U22" s="3">
         <v>100</v>
       </c>
       <c r="V22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1695,79 +1735,85 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1787,7 +1833,7 @@
         <v>-100</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1837,8 +1883,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,26 +2401,29 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2367,23 +2437,23 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2394,90 +2464,96 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2834,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E41" s="3">
         <v>7300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>18600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>22800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>27100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>34600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>40500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>50400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>49900</v>
-      </c>
-      <c r="M41" s="3">
-        <v>200</v>
       </c>
       <c r="N41" s="3">
         <v>200</v>
       </c>
       <c r="O41" s="3">
+        <v>200</v>
+      </c>
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>600</v>
       </c>
-      <c r="Y41" s="3" t="s">
+      <c r="Z41" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,79 +2980,85 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E43" s="3">
         <v>24900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>18400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>15400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>13500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>13100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1000</v>
-      </c>
-      <c r="N43" s="3">
-        <v>900</v>
       </c>
       <c r="O43" s="3">
         <v>900</v>
       </c>
       <c r="P43" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q43" s="3">
         <v>1400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1000</v>
-      </c>
-      <c r="W43" s="3">
-        <v>900</v>
       </c>
       <c r="X43" s="3">
         <v>900</v>
       </c>
-      <c r="Y43" s="3" t="s">
+      <c r="Y43" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z43" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2976,16 +3072,16 @@
         <v>300</v>
       </c>
       <c r="G44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H44" s="3">
         <v>400</v>
       </c>
       <c r="I44" s="3">
+        <v>400</v>
+      </c>
+      <c r="J44" s="3">
         <v>500</v>
-      </c>
-      <c r="J44" s="3">
-        <v>600</v>
       </c>
       <c r="K44" s="3">
         <v>600</v>
@@ -2994,188 +3090,197 @@
         <v>600</v>
       </c>
       <c r="M44" s="3">
+        <v>600</v>
+      </c>
+      <c r="N44" s="3">
         <v>500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1000</v>
-      </c>
-      <c r="W44" s="3">
-        <v>1200</v>
       </c>
       <c r="X44" s="3">
         <v>1200</v>
       </c>
-      <c r="Y44" s="3" t="s">
+      <c r="Y44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z44" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E45" s="3">
         <v>4400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1000</v>
       </c>
-      <c r="Y45" s="3" t="s">
+      <c r="Z45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E46" s="3">
         <v>36900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>34600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>37300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>44800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>51000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>59500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>54700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>60300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>55200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3700</v>
       </c>
-      <c r="Y46" s="3" t="s">
+      <c r="Z46" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3186,10 +3291,10 @@
         <v>2600</v>
       </c>
       <c r="F47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G47" s="3">
         <v>2500</v>
-      </c>
-      <c r="G47" s="3">
-        <v>4200</v>
       </c>
       <c r="H47" s="3">
         <v>4200</v>
@@ -3198,7 +3303,7 @@
         <v>4200</v>
       </c>
       <c r="J47" s="3">
-        <v>1700</v>
+        <v>4200</v>
       </c>
       <c r="K47" s="3">
         <v>1700</v>
@@ -3216,54 +3321,57 @@
         <v>1700</v>
       </c>
       <c r="P47" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q47" s="3">
         <v>1800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1100</v>
-      </c>
-      <c r="W47" s="3">
-        <v>500</v>
       </c>
       <c r="X47" s="3">
         <v>500</v>
       </c>
-      <c r="Y47" s="3" t="s">
+      <c r="Y47" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="E48" s="3">
         <v>3900</v>
       </c>
       <c r="F48" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G48" s="3">
         <v>2000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1600</v>
-      </c>
-      <c r="H48" s="3">
-        <v>900</v>
       </c>
       <c r="I48" s="3">
         <v>900</v>
@@ -3272,16 +3380,16 @@
         <v>900</v>
       </c>
       <c r="K48" s="3">
+        <v>900</v>
+      </c>
+      <c r="L48" s="3">
         <v>100</v>
-      </c>
-      <c r="L48" s="3">
-        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>200</v>
       </c>
       <c r="N48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O48" s="3">
         <v>300</v>
@@ -3290,60 +3398,63 @@
         <v>300</v>
       </c>
       <c r="Q48" s="3">
+        <v>300</v>
+      </c>
+      <c r="R48" s="3">
         <v>400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>600</v>
-      </c>
-      <c r="U48" s="3">
-        <v>400</v>
       </c>
       <c r="V48" s="3">
         <v>400</v>
       </c>
       <c r="W48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X48" s="3">
         <v>300</v>
       </c>
-      <c r="Y48" s="3" t="s">
+      <c r="Y48" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z48" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E49" s="3">
         <v>20700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>21000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>16600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>15500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>9400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>10600</v>
-      </c>
-      <c r="K49" s="3">
-        <v>900</v>
       </c>
       <c r="L49" s="3">
         <v>900</v>
@@ -3352,7 +3463,7 @@
         <v>900</v>
       </c>
       <c r="N49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="O49" s="3">
         <v>1000</v>
@@ -3367,13 +3478,13 @@
         <v>1000</v>
       </c>
       <c r="S49" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T49" s="3">
         <v>900</v>
       </c>
       <c r="U49" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="V49" s="3">
         <v>100</v>
@@ -3381,14 +3492,17 @@
       <c r="W49" s="3">
         <v>100</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>8</v>
+      <c r="X49" s="3">
+        <v>100</v>
       </c>
       <c r="Y49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,34 +3646,37 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="3">
-        <v>100</v>
       </c>
       <c r="L52" s="3">
         <v>100</v>
@@ -3564,8 +3684,8 @@
       <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
+      <c r="N52" s="3">
+        <v>100</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>8</v>
@@ -3573,18 +3693,18 @@
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
       <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
         <v>100</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
       <c r="U52" s="3">
         <v>0</v>
       </c>
@@ -3595,13 +3715,16 @@
         <v>0</v>
       </c>
       <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
         <v>100</v>
       </c>
-      <c r="Y52" s="3" t="s">
+      <c r="Z52" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>61300</v>
+      </c>
+      <c r="E54" s="3">
         <v>64100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>62100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>58400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>66100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>65500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>74200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>68000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>63100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>58000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4600</v>
       </c>
-      <c r="Y54" s="3" t="s">
+      <c r="Z54" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,90 +3926,94 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E57" s="3">
         <v>14900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>7900</v>
       </c>
       <c r="H57" s="3">
         <v>7900</v>
       </c>
       <c r="I57" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J57" s="3">
         <v>6100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>900</v>
       </c>
-      <c r="Y57" s="3" t="s">
+      <c r="Z57" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E58" s="3">
         <v>2900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3800</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -3887,8 +4021,8 @@
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -3897,37 +4031,37 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>1000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3500</v>
-      </c>
-      <c r="V58" s="3">
-        <v>500</v>
       </c>
       <c r="W58" s="3">
         <v>500</v>
@@ -3935,153 +4069,162 @@
       <c r="X58" s="3">
         <v>500</v>
       </c>
-      <c r="Y58" s="3" t="s">
+      <c r="Y58" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E59" s="3">
         <v>13100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>18900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6000</v>
-      </c>
-      <c r="O59" s="3">
-        <v>5400</v>
       </c>
       <c r="P59" s="3">
         <v>5400</v>
       </c>
       <c r="Q59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="R59" s="3">
         <v>4800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>5100</v>
       </c>
-      <c r="Y59" s="3" t="s">
+      <c r="Z59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E60" s="3">
         <v>30900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>24300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>20100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>25000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>13500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6400</v>
       </c>
-      <c r="Y60" s="3" t="s">
+      <c r="Z60" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4113,32 +4256,32 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>1000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>1800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>200</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4151,46 +4294,49 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E62" s="3">
         <v>2900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>800</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1000</v>
       </c>
       <c r="J62" s="3">
         <v>1000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
+      <c r="K62" s="3">
+        <v>1000</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
       <c r="O62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
@@ -4202,13 +4348,13 @@
         <v>100</v>
       </c>
       <c r="S62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
+      <c r="U62" s="3">
+        <v>0</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>8</v>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E66" s="3">
         <v>33800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>27300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>20900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>26000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6400</v>
       </c>
-      <c r="Y66" s="3" t="s">
+      <c r="Z66" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-43300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-38100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-33900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-25300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-23500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-22800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-22200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-22300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-23600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-22000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-20900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-20200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-16900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-14300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-11400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-10000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-8500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-6800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-5900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-5400</v>
       </c>
-      <c r="Y72" s="3" t="s">
+      <c r="Z72" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E76" s="3">
         <v>30300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>34700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>37500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>46300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>44600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>48200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>48800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>49500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>48600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-7400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-6700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-6600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-5000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-5300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-3800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-2200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y76" s="3" t="s">
+      <c r="Z76" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5429,13 +5628,13 @@
         <v>400</v>
       </c>
       <c r="F83" s="3">
+        <v>400</v>
+      </c>
+      <c r="G83" s="3">
         <v>500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
@@ -5444,7 +5643,7 @@
         <v>200</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -5474,22 +5673,25 @@
         <v>100</v>
       </c>
       <c r="U83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
       </c>
       <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
         <v>100</v>
       </c>
-      <c r="X83" s="3">
-        <v>0</v>
-      </c>
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6161,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5950,35 +6171,35 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -5986,25 +6207,25 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-200</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-100</v>
       </c>
       <c r="X91" s="3">
         <v>-100</v>
@@ -6012,8 +6233,11 @@
       <c r="Y91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6381,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6163,35 +6393,35 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-2600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5700</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -6199,34 +6429,37 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-500</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-200</v>
       </c>
       <c r="U94" s="3">
         <v>-200</v>
       </c>
       <c r="V94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W94" s="3">
         <v>-800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +6779,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-3800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>49400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3000</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
         <v>100</v>
       </c>
       <c r="Y100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z100" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +6927,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>49700</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
         <v>-200</v>
       </c>
       <c r="P102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>900</v>
       </c>
     </row>
